--- a/medicine/Œil et vue/Anisocorie/Anisocorie.xlsx
+++ b/medicine/Œil et vue/Anisocorie/Anisocorie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anisocorie se définit par une différence de taille entre les deux pupilles. Une des deux pupilles est atteinte, elle est soit en mydriase, soit en myosis.
 Les causes conduisant à ce trouble sont diverses, allant de l'anisocorie physiologique bénigne jusqu'à des troubles neurologiques graves. Sa présence nécessite donc un avis médical systématique.
-Le chanteur anglais David Bowie était atteint de ce trouble[1],[2].
+Le chanteur anglais David Bowie était atteint de ce trouble,.
 </t>
         </is>
       </c>
